--- a/ust.xlsx
+++ b/ust.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\smart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="109">
   <si>
     <t>번호</t>
   </si>
@@ -57,9 +57,6 @@
     <t>R25BK00640593-000</t>
   </si>
   <si>
-    <t>1,516,972,000</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>R25BK00633138-000</t>
   </si>
   <si>
-    <t>939,896,600</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>R25BK00632997-000</t>
   </si>
   <si>
-    <t>1,238,891,800</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>R25BK00614218-000</t>
   </si>
   <si>
-    <t>1,038,813,000</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>R25BK00614057-000</t>
   </si>
   <si>
-    <t>748,020,800</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -132,9 +117,6 @@
     <t>R25BK00611279-000</t>
   </si>
   <si>
-    <t>324,005,000</t>
-  </si>
-  <si>
     <t>-1</t>
   </si>
   <si>
@@ -147,9 +129,6 @@
     <t>R25BK00624458-000</t>
   </si>
   <si>
-    <t>769,571,000</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -162,9 +141,6 @@
     <t>R25BK00563178-001</t>
   </si>
   <si>
-    <t>1,385,043,000</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -177,9 +153,6 @@
     <t>R25BK00578828-000</t>
   </si>
   <si>
-    <t>1,494,449,000</t>
-  </si>
-  <si>
     <t>-2</t>
   </si>
   <si>
@@ -192,9 +165,6 @@
     <t>20240213566-00</t>
   </si>
   <si>
-    <t>834,110,000</t>
-  </si>
-  <si>
     <t>24.03.15</t>
   </si>
   <si>
@@ -204,9 +174,6 @@
     <t>20240205057-00</t>
   </si>
   <si>
-    <t>250,454,000</t>
-  </si>
-  <si>
     <t>24.03.08</t>
   </si>
   <si>
@@ -216,9 +183,6 @@
     <t>20240134961-00</t>
   </si>
   <si>
-    <t>755,444,400</t>
-  </si>
-  <si>
     <t>24.03.05</t>
   </si>
   <si>
@@ -228,9 +192,6 @@
     <t>20240123643-00</t>
   </si>
   <si>
-    <t>1,181,928,000</t>
-  </si>
-  <si>
     <t>24.02.28</t>
   </si>
   <si>
@@ -240,9 +201,6 @@
     <t>20240121464-00</t>
   </si>
   <si>
-    <t>1,323,993,000</t>
-  </si>
-  <si>
     <t>24.02.23</t>
   </si>
   <si>
@@ -252,9 +210,6 @@
     <t>20240106494-00</t>
   </si>
   <si>
-    <t>919,400,000</t>
-  </si>
-  <si>
     <t>24.02.15</t>
   </si>
   <si>
@@ -264,18 +219,12 @@
     <t>20240106475-00</t>
   </si>
   <si>
-    <t>626,989,000</t>
-  </si>
-  <si>
     <t>2024년 관할해역 해양관측정보 종합분석 [공가]</t>
   </si>
   <si>
     <t>20231242827-00</t>
   </si>
   <si>
-    <t>1,500,360,000</t>
-  </si>
-  <si>
     <t>24.01.30</t>
   </si>
   <si>
@@ -285,9 +234,6 @@
     <t>20231223099-00</t>
   </si>
   <si>
-    <t>2,160,210,000</t>
-  </si>
-  <si>
     <t>24.01.17</t>
   </si>
   <si>
@@ -297,9 +243,6 @@
     <t>20231223055-00</t>
   </si>
   <si>
-    <t>2,427,150,000</t>
-  </si>
-  <si>
     <t>24.01.16</t>
   </si>
   <si>
@@ -309,9 +252,6 @@
     <t>20231202857-00</t>
   </si>
   <si>
-    <t>526,505,000</t>
-  </si>
-  <si>
     <t>24.01.09</t>
   </si>
   <si>
@@ -321,9 +261,6 @@
     <t>20231026969-00</t>
   </si>
   <si>
-    <t>90,105,000</t>
-  </si>
-  <si>
     <t>23.11.01</t>
   </si>
   <si>
@@ -333,9 +270,6 @@
     <t>20230125551-00</t>
   </si>
   <si>
-    <t>540,000,000</t>
-  </si>
-  <si>
     <t>23.02.28</t>
   </si>
   <si>
@@ -345,18 +279,12 @@
     <t>20230125285-00</t>
   </si>
   <si>
-    <t>834,328,000</t>
-  </si>
-  <si>
     <t>서남해안 해도제작 (긴급공고) [급][공가][PQ]</t>
   </si>
   <si>
     <t>20230123188-00</t>
   </si>
   <si>
-    <t>2,172,600,000</t>
-  </si>
-  <si>
     <t>23.02.23</t>
   </si>
   <si>
@@ -366,18 +294,12 @@
     <t>20230123164-00</t>
   </si>
   <si>
-    <t>2,502,630,000</t>
-  </si>
-  <si>
     <t>해저지형표면(S-102) 구축 및 유지관리 (긴급공고) [급][공가][PQ]</t>
   </si>
   <si>
     <t>20220236523-00</t>
   </si>
   <si>
-    <t>1,258,790,000</t>
-  </si>
-  <si>
     <t>22.03.24</t>
   </si>
   <si>
@@ -387,9 +309,6 @@
     <t>20220205917-00</t>
   </si>
   <si>
-    <t>2,209,792,000</t>
-  </si>
-  <si>
     <t>22.03.10</t>
   </si>
   <si>
@@ -399,18 +318,12 @@
     <t>20220205877-00</t>
   </si>
   <si>
-    <t>2,241,212,000</t>
-  </si>
-  <si>
     <t>2022년 서해안중부 기본수준점조사 (정정공고)//(재입찰) [정][공가]</t>
   </si>
   <si>
     <t>20220108646-01</t>
   </si>
   <si>
-    <t>832,999,000</t>
-  </si>
-  <si>
     <t>22.02.18</t>
   </si>
   <si>
@@ -420,9 +333,6 @@
     <t>20211244094-00</t>
   </si>
   <si>
-    <t>1,420,702,000</t>
-  </si>
-  <si>
     <t>22.01.27</t>
   </si>
   <si>
@@ -430,9 +340,6 @@
   </si>
   <si>
     <t>20211134832-00</t>
-  </si>
-  <si>
-    <t>779,623,000</t>
   </si>
   <si>
     <t>21.12.24</t>
@@ -450,12 +357,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="#,###"/>
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="180" formatCode="#,###.000"/>
+    <numFmt numFmtId="178" formatCode="#,###.000"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +396,13 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -527,10 +443,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -541,7 +460,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -551,9 +469,20 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -857,7 +786,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -881,14 +810,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>139</v>
+      <c r="E1" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>138</v>
+      <c r="G1" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -910,28 +839,28 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>1613800000</v>
       </c>
-      <c r="E2" s="8">
-        <f>IF(D2&lt;1000000000, 0.855, IF(D2&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:E32" si="0">IF(D2&lt;1000000000, 0.855, IF(D2&lt;3000000000, 0.83, 0.805))</f>
         <v>0.83</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="11">
+        <v>1516972000</v>
+      </c>
+      <c r="G2" s="6">
         <f>F2/D2/E2</f>
         <v>1.1325301204819278</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -939,33 +868,33 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="8">
+        <v>999890000</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="0"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F3" s="9">
+        <v>939896600</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G32" si="1">F3/D3/E3</f>
+        <v>1.0994152046783625</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4">
-        <v>999890000</v>
-      </c>
-      <c r="E3" s="8">
-        <f>IF(D3&lt;1000000000, 0.855, IF(D3&lt;3000000000, 0.83, 0.805))</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G32" si="0">F3/D3/E3</f>
-        <v>1.0994152046783625</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -973,33 +902,33 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1317970000</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1238891800</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1325301204819278</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1317970000</v>
-      </c>
-      <c r="E4" s="8">
-        <f>IF(D4&lt;1000000000, 0.855, IF(D4&lt;3000000000, 0.83, 0.805))</f>
-        <v>0.83</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" si="0"/>
-        <v>1.1325301204819278</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1007,33 +936,33 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1241067000</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1038813000</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0084724899710034</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1241067000</v>
-      </c>
-      <c r="E5" s="8">
-        <f>IF(D5&lt;1000000000, 0.855, IF(D5&lt;3000000000, 0.83, 0.805))</f>
-        <v>0.83</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>1.0084724899710034</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1041,33 +970,33 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8">
         <v>900000000</v>
       </c>
-      <c r="E6" s="8">
-        <f>IF(D6&lt;1000000000, 0.855, IF(D6&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="0"/>
+      <c r="F6" s="9">
+        <v>748020800</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
         <v>0.97208680961663418</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>32</v>
+      <c r="I6" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1075,33 +1004,33 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="4">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8">
         <v>388419700</v>
       </c>
-      <c r="E7" s="8">
-        <f>IF(D7&lt;1000000000, 0.855, IF(D7&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="0"/>
+      <c r="F7" s="9">
+        <v>324005000</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
         <v>0.97562820931654348</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>27</v>
+      <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1109,33 +1038,33 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4">
+        <v>34</v>
+      </c>
+      <c r="D8" s="8">
         <v>926690000</v>
       </c>
-      <c r="E8" s="8">
-        <f>IF(D8&lt;1000000000, 0.855, IF(D8&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="0"/>
+      <c r="F8" s="9">
+        <v>769571000</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
         <v>0.97128817720669536</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>42</v>
+      <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1143,33 +1072,33 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8">
         <v>1660830000</v>
       </c>
-      <c r="E9" s="8">
-        <f>IF(D9&lt;1000000000, 0.855, IF(D9&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="0"/>
+      <c r="F9" s="9">
+        <v>1385043000</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
         <v>1.0047545540627858</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>47</v>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1177,33 +1106,33 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4">
+        <v>42</v>
+      </c>
+      <c r="D10" s="8">
         <v>1799900000</v>
       </c>
-      <c r="E10" s="8">
-        <f>IF(D10&lt;1000000000, 0.855, IF(D10&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="0"/>
+      <c r="F10" s="9">
+        <v>1494449000</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
         <v>1.0003561108147241</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>32</v>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1211,33 +1140,33 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="4">
+        <v>46</v>
+      </c>
+      <c r="D11" s="8">
         <v>999900000</v>
       </c>
-      <c r="E11" s="8">
-        <f>IF(D11&lt;1000000000, 0.855, IF(D11&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="0"/>
+      <c r="F11" s="9">
+        <v>834110000</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
         <v>0.97566481794378268</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1245,33 +1174,33 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="4">
+        <v>49</v>
+      </c>
+      <c r="D12" s="8">
         <v>300000000</v>
       </c>
-      <c r="E12" s="8">
-        <f>IF(D12&lt;1000000000, 0.855, IF(D12&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="0"/>
+      <c r="F12" s="9">
+        <v>250454000</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
         <v>0.97642884990253409</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>32</v>
+      <c r="I12" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1279,33 +1208,33 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="4">
+        <v>52</v>
+      </c>
+      <c r="D13" s="8">
         <v>899880000</v>
       </c>
-      <c r="E13" s="8">
-        <f>IF(D13&lt;1000000000, 0.855, IF(D13&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="0"/>
+      <c r="F13" s="9">
+        <v>755444400</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
         <v>0.98186502839754852</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>32</v>
+      <c r="H13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1313,33 +1242,33 @@
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="4">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8">
         <v>1409800000</v>
       </c>
-      <c r="E14" s="8">
-        <f>IF(D14&lt;1000000000, 0.855, IF(D14&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="0"/>
+      <c r="F14" s="9">
+        <v>1181928000</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
         <v>1.0100791875118575</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>47</v>
+      <c r="I14" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1347,33 +1276,33 @@
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="4">
+        <v>58</v>
+      </c>
+      <c r="D15" s="8">
         <v>1582900000</v>
       </c>
-      <c r="E15" s="8">
-        <f>IF(D15&lt;1000000000, 0.855, IF(D15&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="0"/>
+      <c r="F15" s="9">
+        <v>1323993000</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
         <v>1.0077530413523448</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>47</v>
+      <c r="H15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1381,33 +1310,33 @@
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="4">
+        <v>61</v>
+      </c>
+      <c r="D16" s="8">
         <v>999360000</v>
       </c>
-      <c r="E16" s="8">
-        <f>IF(D16&lt;1000000000, 0.855, IF(D16&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="0"/>
+      <c r="F16" s="9">
+        <v>919400000</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
         <v>1.0760102840086661</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>22</v>
+      <c r="H16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1415,33 +1344,33 @@
         <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="4">
+        <v>64</v>
+      </c>
+      <c r="D17" s="8">
         <v>749956000</v>
       </c>
-      <c r="E17" s="8">
-        <f>IF(D17&lt;1000000000, 0.855, IF(D17&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="0"/>
+      <c r="F17" s="9">
+        <v>626989000</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="1"/>
         <v>0.97781798910370388</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>47</v>
+      <c r="H17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1449,33 +1378,33 @@
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="4">
+        <v>66</v>
+      </c>
+      <c r="D18" s="8">
         <v>1798600000</v>
       </c>
-      <c r="E18" s="8">
-        <f>IF(D18&lt;1000000000, 0.855, IF(D18&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="0"/>
+      <c r="F18" s="9">
+        <v>1500360000</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="1"/>
         <v>1.005038724898482</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>47</v>
+      <c r="I18" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1483,33 +1412,33 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="4">
+        <v>69</v>
+      </c>
+      <c r="D19" s="8">
         <v>2509100000</v>
       </c>
-      <c r="E19" s="8">
-        <f>IF(D19&lt;1000000000, 0.855, IF(D19&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="0"/>
+      <c r="F19" s="9">
+        <v>2160210000</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="1"/>
         <v>1.0372893270903549</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>47</v>
+      <c r="I19" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1517,33 +1446,33 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="4">
+        <v>72</v>
+      </c>
+      <c r="D20" s="8">
         <v>2819300000</v>
       </c>
-      <c r="E20" s="8">
-        <f>IF(D20&lt;1000000000, 0.855, IF(D20&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="0"/>
+      <c r="F20" s="9">
+        <v>2427150000</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
         <v>1.037235167748638</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>47</v>
+      <c r="H20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1551,33 +1480,33 @@
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="4">
+        <v>75</v>
+      </c>
+      <c r="D21" s="8">
         <v>631100000</v>
       </c>
-      <c r="E21" s="8">
-        <f>IF(D21&lt;1000000000, 0.855, IF(D21&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" si="0"/>
+      <c r="F21" s="9">
+        <v>526505000</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
         <v>0.97574920240441598</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>12</v>
+      <c r="H21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1585,33 +1514,33 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="4">
+        <v>78</v>
+      </c>
+      <c r="D22" s="8">
         <v>90558000</v>
       </c>
-      <c r="E22" s="8">
-        <f>IF(D22&lt;1000000000, 0.855, IF(D22&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" si="0"/>
+      <c r="F22" s="9">
+        <v>90105000</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
         <v>1.163739977829465</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>47</v>
+      <c r="H22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1619,33 +1548,33 @@
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="4">
+        <v>81</v>
+      </c>
+      <c r="D23" s="8">
         <v>600000000</v>
       </c>
-      <c r="E23" s="8">
-        <f>IF(D23&lt;1000000000, 0.855, IF(D23&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E23" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="0"/>
+      <c r="F23" s="9">
+        <v>540000000</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="1"/>
         <v>1.0526315789473684</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>47</v>
+      <c r="H23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1653,33 +1582,33 @@
         <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="4">
+        <v>84</v>
+      </c>
+      <c r="D24" s="8">
         <v>990418000</v>
       </c>
-      <c r="E24" s="8">
-        <f>IF(D24&lt;1000000000, 0.855, IF(D24&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="0"/>
+      <c r="F24" s="9">
+        <v>834328000</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="1"/>
         <v>0.98526301240710712</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>42</v>
+      <c r="H24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1687,33 +1616,33 @@
         <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="4">
+        <v>86</v>
+      </c>
+      <c r="D25" s="8">
         <v>2483000000</v>
       </c>
-      <c r="E25" s="8">
-        <f>IF(D25&lt;1000000000, 0.855, IF(D25&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="0"/>
+      <c r="F25" s="9">
+        <v>2172600000</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="1"/>
         <v>1.054204736788475</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>47</v>
+      <c r="I25" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1721,33 +1650,33 @@
         <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="4">
+        <v>89</v>
+      </c>
+      <c r="D26" s="8">
         <v>2852000000</v>
       </c>
-      <c r="E26" s="8">
-        <f>IF(D26&lt;1000000000, 0.855, IF(D26&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="7">
-        <f t="shared" si="0"/>
+      <c r="F26" s="9">
+        <v>2502630000</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="1"/>
         <v>1.0572289156626506</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>47</v>
+      <c r="H26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1755,33 +1684,33 @@
         <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="4">
+        <v>91</v>
+      </c>
+      <c r="D27" s="8">
         <v>1499982000</v>
       </c>
-      <c r="E27" s="8">
-        <f>IF(D27&lt;1000000000, 0.855, IF(D27&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="7">
-        <f t="shared" si="0"/>
+      <c r="F27" s="9">
+        <v>1258790000</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="1"/>
         <v>1.011088438282143</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>32</v>
+      <c r="I27" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1789,33 +1718,33 @@
         <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="4">
+        <v>94</v>
+      </c>
+      <c r="D28" s="8">
         <v>2560000000</v>
       </c>
-      <c r="E28" s="8">
-        <f>IF(D28&lt;1000000000, 0.855, IF(D28&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="0"/>
+      <c r="F28" s="9">
+        <v>2209792000</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="1"/>
         <v>1.04</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>47</v>
+      <c r="I28" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1823,33 +1752,33 @@
         <v>37</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="4">
+        <v>97</v>
+      </c>
+      <c r="D29" s="8">
         <v>2596400000</v>
       </c>
-      <c r="E29" s="8">
-        <f>IF(D29&lt;1000000000, 0.855, IF(D29&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="7">
-        <f t="shared" si="0"/>
+      <c r="F29" s="9">
+        <v>2241212000</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="1"/>
         <v>1.0399997772634213</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>47</v>
+      <c r="H29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1857,33 +1786,33 @@
         <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="4">
+        <v>99</v>
+      </c>
+      <c r="D30" s="8">
         <v>999994000</v>
       </c>
-      <c r="E30" s="8">
-        <f>IF(D30&lt;1000000000, 0.855, IF(D30&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="0"/>
+      <c r="F30" s="9">
+        <v>832999000</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="1"/>
         <v>0.97427368189940133</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>32</v>
+      <c r="I30" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1891,33 +1820,33 @@
         <v>39</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="4">
+        <v>102</v>
+      </c>
+      <c r="D31" s="8">
         <v>1700400000</v>
       </c>
-      <c r="E31" s="8">
-        <f>IF(D31&lt;1000000000, 0.855, IF(D31&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="7">
-        <f t="shared" si="0"/>
+      <c r="F31" s="9">
+        <v>1420702000</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="1"/>
         <v>1.0066391182230687</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>47</v>
+      <c r="I31" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1925,33 +1854,33 @@
         <v>40</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="4">
+        <v>105</v>
+      </c>
+      <c r="D32" s="8">
         <v>931500000</v>
       </c>
-      <c r="E32" s="8">
-        <f>IF(D32&lt;1000000000, 0.855, IF(D32&lt;3000000000, 0.83, 0.805))</f>
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" si="0"/>
+      <c r="F32" s="10">
+        <v>779623000</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="1"/>
         <v>0.97889400545557848</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>27</v>
+      <c r="H32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/ust.xlsx
+++ b/ust.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
   <si>
     <t>번호</t>
   </si>
@@ -60,9 +60,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>25.04.03</t>
-  </si>
-  <si>
     <t>항만해역 정밀수로측량(군산·장항항) [급][기초][공가][PQ]</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>25.03.28</t>
-  </si>
-  <si>
     <t>국가어항 주기조사(궁평항 등 22개항) [급][기초][공가][PQ]</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>25.03.26</t>
-  </si>
-  <si>
     <t>2025년 해저지형표면(S-102) 구축 및 유지관리 [기초][공가][PQ]</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>25.03.20</t>
-  </si>
-  <si>
     <t>2025년 서해안 중부 기본수준점 조사//(재입찰) [기초][공가][PQ]</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>25.03.19</t>
-  </si>
-  <si>
     <t>2025년 한국연안 항로지 제작 [기초][공가]</t>
   </si>
   <si>
@@ -120,9 +105,6 @@
     <t>-1</t>
   </si>
   <si>
-    <t>25.03.18</t>
-  </si>
-  <si>
     <t>2025년 골재채취해역 해저지형변화 모니터링 [공가][PQ]</t>
   </si>
   <si>
@@ -132,9 +114,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>25.03.17</t>
-  </si>
-  <si>
     <t>경기만 등 장기조류관측 및 자료분석//(재입찰) [정][기초][공가][PQ]</t>
   </si>
   <si>
@@ -144,9 +123,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>25.02.19</t>
-  </si>
-  <si>
     <t>2025년 관할해역 해양관측정보 종합분석//(지정업체)(재입찰) [기초][공가]</t>
   </si>
   <si>
@@ -156,63 +132,42 @@
     <t>-2</t>
   </si>
   <si>
-    <t>25.01.22</t>
-  </si>
-  <si>
     <t>2024년 소형선용 안전정보 제작 [급][공가][PQ]</t>
   </si>
   <si>
     <t>20240213566-00</t>
   </si>
   <si>
-    <t>24.03.15</t>
-  </si>
-  <si>
     <t>복합재난 침수모니터링 계획 수립 [공가][PQ]</t>
   </si>
   <si>
     <t>20240205057-00</t>
   </si>
   <si>
-    <t>24.03.08</t>
-  </si>
-  <si>
     <t>2024년 동남해안 및 제주 기본수준점 조사 [공가][PQ]</t>
   </si>
   <si>
     <t>20240134961-00</t>
   </si>
   <si>
-    <t>24.03.05</t>
-  </si>
-  <si>
     <t>2024년 해양위성정보 품질검증 체계 구축//(재입찰) [급][기초][공가]</t>
   </si>
   <si>
     <t>20240123643-00</t>
   </si>
   <si>
-    <t>24.02.28</t>
-  </si>
-  <si>
     <t>방도수도 등 장기조류관측 및 자료분석//(재입찰) [급][기초][공가]</t>
   </si>
   <si>
     <t>20240121464-00</t>
   </si>
   <si>
-    <t>24.02.23</t>
-  </si>
-  <si>
     <t>2024년 골재채취해역 해저지형변화 모니터링 [급][공가]</t>
   </si>
   <si>
     <t>20240106494-00</t>
   </si>
   <si>
-    <t>24.02.15</t>
-  </si>
-  <si>
     <t>2024년 해저지형표면(S-102)  구축 및 유지관리 [급][공가][PQ]</t>
   </si>
   <si>
@@ -225,54 +180,36 @@
     <t>20231242827-00</t>
   </si>
   <si>
-    <t>24.01.30</t>
-  </si>
-  <si>
     <t>서남해안 해도제작 [공가]</t>
   </si>
   <si>
     <t>20231223099-00</t>
   </si>
   <si>
-    <t>24.01.17</t>
-  </si>
-  <si>
     <t>남동해안 해도제작 [공가]</t>
   </si>
   <si>
     <t>20231223055-00</t>
   </si>
   <si>
-    <t>24.01.16</t>
-  </si>
-  <si>
     <t>2024년 관할해역 장기조석관측 및 자료분석 [기초][공가]</t>
   </si>
   <si>
     <t>20231202857-00</t>
   </si>
   <si>
-    <t>24.01.09</t>
-  </si>
-  <si>
     <t>장항 조위관측소 해양·기상관측장비 이전 설치 [기초][공가][수의]</t>
   </si>
   <si>
     <t>20231026969-00</t>
   </si>
   <si>
-    <t>23.11.01</t>
-  </si>
-  <si>
     <t>실시간 이안류 감시체계 서비스(9차) [공가]</t>
   </si>
   <si>
     <t>20230125551-00</t>
   </si>
   <si>
-    <t>23.02.28</t>
-  </si>
-  <si>
     <t>2023년 골재채취해역 해저지형변화 모니터링 (긴급공고) [급][공가][PQ]</t>
   </si>
   <si>
@@ -285,9 +222,6 @@
     <t>20230123188-00</t>
   </si>
   <si>
-    <t>23.02.23</t>
-  </si>
-  <si>
     <t>남동해안 해도제작 (긴급공고) [급][공가][PQ]</t>
   </si>
   <si>
@@ -300,18 +234,12 @@
     <t>20220236523-00</t>
   </si>
   <si>
-    <t>22.03.24</t>
-  </si>
-  <si>
     <t>남동해안 해도제작 [공가][PQ]</t>
   </si>
   <si>
     <t>20220205917-00</t>
   </si>
   <si>
-    <t>22.03.10</t>
-  </si>
-  <si>
     <t>서해안 해도제작 [공가][PQ]</t>
   </si>
   <si>
@@ -324,25 +252,16 @@
     <t>20220108646-01</t>
   </si>
   <si>
-    <t>22.02.18</t>
-  </si>
-  <si>
     <t>2022년 관할해역 해양관측정보 종합분석 [공가]</t>
   </si>
   <si>
     <t>20211244094-00</t>
   </si>
   <si>
-    <t>22.01.27</t>
-  </si>
-  <si>
     <t>다대포항 등 관할해역 장기조석관측 및 자료분석 [공가]</t>
   </si>
   <si>
     <t>20211134832-00</t>
-  </si>
-  <si>
-    <t>21.12.24</t>
   </si>
   <si>
     <t>투찰율</t>
@@ -359,10 +278,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="#,###.000"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="#,###.000"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -449,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,19 +385,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -785,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -811,13 +733,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -859,8 +781,8 @@
       <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
+      <c r="J2" s="12">
+        <v>45750</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -868,10 +790,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="8">
         <v>999890000</v>
@@ -888,13 +810,13 @@
         <v>1.0994152046783625</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="J3" s="12">
+        <v>45744</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -902,10 +824,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="8">
         <v>1317970000</v>
@@ -922,13 +844,13 @@
         <v>1.1325301204819278</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="J4" s="12">
+        <v>45742</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -936,10 +858,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8">
         <v>1241067000</v>
@@ -959,10 +881,10 @@
         <v>8</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J5" s="12">
+        <v>45736</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -970,10 +892,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8">
         <v>900000000</v>
@@ -993,10 +915,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="J6" s="12">
+        <v>45735</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1004,10 +926,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="8">
         <v>388419700</v>
@@ -1024,13 +946,13 @@
         <v>0.97562820931654348</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="J7" s="12">
+        <v>45734</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1038,10 +960,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" s="8">
         <v>926690000</v>
@@ -1058,13 +980,13 @@
         <v>0.97128817720669536</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="J8" s="12">
+        <v>45733</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1072,10 +994,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8">
         <v>1660830000</v>
@@ -1092,13 +1014,13 @@
         <v>1.0047545540627858</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="J9" s="12">
+        <v>45707</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1106,10 +1028,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8">
         <v>1799900000</v>
@@ -1126,13 +1048,13 @@
         <v>1.0003561108147241</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="J10" s="12">
+        <v>45679</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1140,10 +1062,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D11" s="8">
         <v>999900000</v>
@@ -1160,13 +1082,13 @@
         <v>0.97566481794378268</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="J11" s="12">
+        <v>45366</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1174,10 +1096,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8">
         <v>300000000</v>
@@ -1197,10 +1119,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="J12" s="12">
+        <v>45359</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1208,10 +1130,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8">
         <v>899880000</v>
@@ -1228,13 +1150,13 @@
         <v>0.98186502839754852</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="J13" s="12">
+        <v>45356</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1242,10 +1164,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8">
         <v>1409800000</v>
@@ -1265,10 +1187,10 @@
         <v>8</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
+      </c>
+      <c r="J14" s="12">
+        <v>45350</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1276,10 +1198,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8">
         <v>1582900000</v>
@@ -1296,13 +1218,13 @@
         <v>1.0077530413523448</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="J15" s="12">
+        <v>45345</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1310,10 +1232,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8">
         <v>999360000</v>
@@ -1330,13 +1252,13 @@
         <v>1.0760102840086661</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="J16" s="12">
+        <v>45337</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1344,10 +1266,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8">
         <v>749956000</v>
@@ -1364,13 +1286,13 @@
         <v>0.97781798910370388</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="J17" s="12">
+        <v>45337</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1378,10 +1300,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8">
         <v>1798600000</v>
@@ -1401,10 +1323,10 @@
         <v>8</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="J18" s="12">
+        <v>45321</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1412,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8">
         <v>2509100000</v>
@@ -1435,10 +1357,10 @@
         <v>8</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="J19" s="12">
+        <v>45308</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1446,10 +1368,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8">
         <v>2819300000</v>
@@ -1466,13 +1388,13 @@
         <v>1.037235167748638</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="J20" s="12">
+        <v>45307</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1480,10 +1402,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8">
         <v>631100000</v>
@@ -1500,13 +1422,13 @@
         <v>0.97574920240441598</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>76</v>
+      <c r="J21" s="12">
+        <v>45300</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1514,10 +1436,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D22" s="8">
         <v>90558000</v>
@@ -1534,13 +1456,13 @@
         <v>1.163739977829465</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
+      </c>
+      <c r="J22" s="12">
+        <v>45231</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1548,10 +1470,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D23" s="8">
         <v>600000000</v>
@@ -1568,13 +1490,13 @@
         <v>1.0526315789473684</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="J23" s="12">
+        <v>44985</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1582,10 +1504,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D24" s="8">
         <v>990418000</v>
@@ -1602,13 +1524,13 @@
         <v>0.98526301240710712</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
+      </c>
+      <c r="J24" s="12">
+        <v>44985</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1616,10 +1538,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D25" s="8">
         <v>2483000000</v>
@@ -1639,10 +1561,10 @@
         <v>8</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
+      </c>
+      <c r="J25" s="12">
+        <v>44980</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1650,10 +1572,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D26" s="8">
         <v>2852000000</v>
@@ -1670,13 +1592,13 @@
         <v>1.0572289156626506</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
+      </c>
+      <c r="J26" s="12">
+        <v>44980</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1684,10 +1606,10 @@
         <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D27" s="8">
         <v>1499982000</v>
@@ -1707,10 +1629,10 @@
         <v>8</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>92</v>
+        <v>23</v>
+      </c>
+      <c r="J27" s="12">
+        <v>44644</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1718,10 +1640,10 @@
         <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D28" s="8">
         <v>2560000000</v>
@@ -1741,10 +1663,10 @@
         <v>8</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
+      </c>
+      <c r="J28" s="12">
+        <v>44630</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1752,10 +1674,10 @@
         <v>37</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D29" s="8">
         <v>2596400000</v>
@@ -1772,13 +1694,13 @@
         <v>1.0399997772634213</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
+      </c>
+      <c r="J29" s="12">
+        <v>44630</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1786,10 +1708,10 @@
         <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D30" s="8">
         <v>999994000</v>
@@ -1809,10 +1731,10 @@
         <v>8</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>100</v>
+        <v>23</v>
+      </c>
+      <c r="J30" s="12">
+        <v>44610</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1820,10 +1742,10 @@
         <v>39</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D31" s="8">
         <v>1700400000</v>
@@ -1843,10 +1765,10 @@
         <v>8</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>103</v>
+        <v>32</v>
+      </c>
+      <c r="J31" s="12">
+        <v>44588</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1854,10 +1776,10 @@
         <v>40</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D32" s="8">
         <v>931500000</v>
@@ -1874,13 +1796,13 @@
         <v>0.97889400545557848</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>106</v>
+        <v>20</v>
+      </c>
+      <c r="J32" s="12">
+        <v>44554</v>
       </c>
     </row>
   </sheetData>
